--- a/Python/result-cn/result_battlepass-color.xlsx
+++ b/Python/result-cn/result_battlepass-color.xlsx
@@ -2,43 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="bplevel" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -48,6 +39,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00fff68f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff715f"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,33 +56,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -451,11 +439,11 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -541,9 +529,9 @@
       <c r="B2" t="n">
         <v>1692</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10002|200</t>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>10002|500</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -557,7 +545,7 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>10002:200:200:10000</t>
         </is>
@@ -567,7 +555,7 @@
           <t>9102</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>300104|1</t>
         </is>
@@ -583,7 +571,7 @@
       <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>3001041:1:1:10000|3001043:1:1:10000</t>
         </is>
@@ -598,7 +586,7 @@
           <t>500004</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>500004|1</t>
         </is>
@@ -614,7 +602,7 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -624,7 +612,7 @@
           <t>500006</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -640,7 +628,7 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -785,7 +773,7 @@
           <t>7107</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>10008|50</t>
         </is>
@@ -801,7 +789,7 @@
       <c r="R6" t="n">
         <v>1</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>10007:50:50:10000</t>
         </is>
@@ -814,7 +802,7 @@
       <c r="B7" t="n">
         <v>1816</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>160001|1</t>
         </is>
@@ -830,17 +818,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>160002:1:1:10000</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>160001:1:1:10000</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>1707</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>10002|300</t>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10002|500</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -854,7 +842,7 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>10002:300:300:10000</t>
         </is>
@@ -1083,7 +1071,7 @@
           <t>500004</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>500004|1</t>
         </is>
@@ -1099,7 +1087,7 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -1109,7 +1097,7 @@
           <t>500006</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -1125,7 +1113,7 @@
       <c r="R12" t="n">
         <v>0</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -1321,7 +1309,7 @@
       <c r="L16" t="n">
         <v>7107</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>10008|50</t>
         </is>
@@ -1337,7 +1325,7 @@
       <c r="R16" t="n">
         <v>1</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>10007:50:50:10000</t>
         </is>
@@ -1537,7 +1525,7 @@
           <t>500006</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -1553,7 +1541,7 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -1621,7 +1609,7 @@
           <t>500004</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>500004|1</t>
         </is>
@@ -1637,7 +1625,7 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -1751,7 +1739,7 @@
       <c r="M24" t="n">
         <v>500006</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -1767,7 +1755,7 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -1886,7 +1874,7 @@
       <c r="C27" t="n">
         <v>500004</v>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>500004|1</t>
         </is>
@@ -1902,7 +1890,7 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="I27" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -2124,7 +2112,7 @@
       <c r="L31" t="n">
         <v>7107</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" s="3" t="inlineStr">
         <is>
           <t>10008|50</t>
         </is>
@@ -2140,7 +2128,7 @@
       <c r="R31" t="n">
         <v>1</v>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="3" t="inlineStr">
         <is>
           <t>10007:50:50:10000</t>
         </is>
@@ -2259,7 +2247,7 @@
       <c r="C34" t="n">
         <v>500005</v>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>500005|1</t>
         </is>
@@ -2275,7 +2263,7 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="2" t="inlineStr">
+      <c r="I34" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -2283,7 +2271,7 @@
       <c r="M34" t="n">
         <v>500006</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N34" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -2299,7 +2287,7 @@
       <c r="R34" t="n">
         <v>0</v>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -2471,7 +2459,7 @@
       <c r="C38" t="n">
         <v>500004</v>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>500004|1</t>
         </is>
@@ -2487,7 +2475,7 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="2" t="inlineStr">
+      <c r="I38" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -2495,7 +2483,7 @@
       <c r="M38" t="n">
         <v>500006</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N38" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -2511,7 +2499,7 @@
       <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="S38" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -2707,7 +2695,7 @@
       <c r="M42" t="n">
         <v>500006</v>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -2723,7 +2711,7 @@
       <c r="R42" t="n">
         <v>0</v>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -2789,7 +2777,7 @@
       <c r="C44" t="n">
         <v>500004</v>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>500004|1</t>
         </is>
@@ -2805,7 +2793,7 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" s="2" t="inlineStr">
+      <c r="I44" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -2919,7 +2907,7 @@
       <c r="L46" t="n">
         <v>7107</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N46" s="3" t="inlineStr">
         <is>
           <t>10008|50</t>
         </is>
@@ -2935,7 +2923,7 @@
       <c r="R46" t="n">
         <v>1</v>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="3" t="inlineStr">
         <is>
           <t>10007:50:50:10000</t>
         </is>
@@ -3001,7 +2989,7 @@
       <c r="C48" t="n">
         <v>500004</v>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>500004|1</t>
         </is>
@@ -3017,7 +3005,7 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="2" t="inlineStr">
+      <c r="I48" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -3025,7 +3013,7 @@
       <c r="M48" t="n">
         <v>500006</v>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" s="3" t="inlineStr">
         <is>
           <t>500006|1</t>
         </is>
@@ -3041,7 +3029,7 @@
       <c r="R48" t="n">
         <v>0</v>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="S48" s="3" t="inlineStr">
         <is>
           <t>10001:1:1:1|10002:1:1:1</t>
         </is>
@@ -3210,6 +3198,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Python/result-cn/result_battlepass-color.xlsx
+++ b/Python/result-cn/result_battlepass-color.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>10002|500</t>
+          <t>10002|1000</t>
         </is>
       </c>
       <c r="F2" t="n">
